--- a/src/test/resources/goods.xlsx
+++ b/src/test/resources/goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28400" windowHeight="12380"/>
+    <workbookView windowWidth="28060" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>商品名</t>
   </si>
@@ -43,7 +43,10 @@
     <t>售价</t>
   </si>
   <si>
-    <t>感冒灵颗粒</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>青霉素</t>
   </si>
   <si>
     <t>盒</t>
@@ -55,6 +58,9 @@
     <t>贵州  百灵</t>
   </si>
   <si>
+    <t>西药</t>
+  </si>
+  <si>
     <t>板蓝根</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t>广  州白云山</t>
+  </si>
+  <si>
+    <t>中药</t>
   </si>
 </sst>
 </file>
@@ -70,10 +79,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -114,6 +123,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -122,129 +243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,97 +274,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,85 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +500,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,30 +552,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -550,7 +565,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,162 +593,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1088,7 +1097,7 @@
     <col min="9" max="9" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:9">
+    <row r="1" ht="18.75" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,19 +1125,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="36.75" spans="1:9">
+    <row r="2" ht="36" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5">
         <v>40139</v>
@@ -1145,19 +1157,22 @@
       <c r="I2" s="6">
         <v>19.34681</v>
       </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="36.75" spans="1:9">
+    <row r="3" ht="36.75" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5">
         <v>43617</v>
@@ -1173,6 +1188,9 @@
       </c>
       <c r="I3" s="6">
         <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/goods.xlsx
+++ b/src/test/resources/goods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>商品名</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>电话</t>
   </si>
   <si>
     <t>青霉素</t>
@@ -78,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -115,61 +118,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +149,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,9 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,24 +255,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,55 +277,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,109 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +503,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +573,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,212 +596,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,7 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1084,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1095,9 +1098,10 @@
     <col min="5" max="5" width="17.34375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="9" max="9" width="9.5"/>
+    <col min="11" max="11" width="12.6875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:10">
+    <row r="1" ht="18.75" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,19 +1132,22 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="36" spans="1:10">
+    <row r="2" ht="36.75" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5">
         <v>40139</v>
@@ -1158,21 +1165,24 @@
         <v>19.34681</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>18888888888</v>
       </c>
     </row>
-    <row r="3" ht="36.75" spans="1:10">
+    <row r="3" ht="36.75" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
         <v>43617</v>
@@ -1190,7 +1200,10 @@
         <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>18099999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/goods.xlsx
+++ b/src/test/resources/goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12340"/>
+    <workbookView windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
@@ -119,7 +119,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,14 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -149,8 +155,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +216,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,62 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,15 +248,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,15 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,17 +519,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,15 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,114 +567,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -712,31 +712,31 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="3" ht="36.75" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
